--- a/output/1Y_P104_1VAL-D.xlsx
+++ b/output/1Y_P104_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>18.2974</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>546.5257</v>
       </c>
-      <c r="G2" s="1">
-        <v>546.5257</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.134700000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2974</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.134700000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>17.699</v>
       </c>
+      <c r="E3" s="1">
+        <v>546.5257</v>
+      </c>
       <c r="F3" s="1">
         <v>565.0037</v>
       </c>
-      <c r="G3" s="1">
-        <v>1111.5294</v>
-      </c>
       <c r="H3" s="1">
-        <v>19570.9206</v>
+        <v>9622.787899999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.9932</v>
+        <v>9622.787899999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.2974</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19570.9206</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0189</v>
+        <v>-0.0377</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>18.0595</v>
       </c>
+      <c r="E4" s="1">
+        <v>1111.5294</v>
+      </c>
       <c r="F4" s="1">
         <v>553.7252</v>
       </c>
-      <c r="G4" s="1">
-        <v>1665.2546</v>
-      </c>
       <c r="H4" s="1">
-        <v>29917.631</v>
+        <v>19969.515</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.0153</v>
+        <v>19969.515</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.9932</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29917.631</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0117</v>
+        <v>0.0177</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>18.696</v>
       </c>
+      <c r="E5" s="1">
+        <v>1665.2546</v>
+      </c>
       <c r="F5" s="1">
         <v>534.8738</v>
       </c>
-      <c r="G5" s="1">
-        <v>2200.1284</v>
-      </c>
       <c r="H5" s="1">
-        <v>40920.4075</v>
+        <v>30972.2367</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.1808</v>
+        <v>30972.2367</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.0153</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>40920.4075</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0251</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.8704</v>
       </c>
+      <c r="E6" s="1">
+        <v>2200.1284</v>
+      </c>
       <c r="F6" s="1">
         <v>559.5846</v>
       </c>
-      <c r="G6" s="1">
-        <v>2759.7129</v>
-      </c>
       <c r="H6" s="1">
-        <v>49061.3485</v>
+        <v>39113.222</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>18.1178</v>
+        <v>39113.222</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.1808</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>49061.3485</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0365</v>
+        <v>-0.0454</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.5604</v>
       </c>
+      <c r="E7" s="1">
+        <v>2759.7129</v>
+      </c>
       <c r="F7" s="1">
         <v>569.4631000000001</v>
       </c>
-      <c r="G7" s="1">
-        <v>3329.176</v>
-      </c>
       <c r="H7" s="1">
-        <v>58158.7079</v>
+        <v>48210.529</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>18.0225</v>
+        <v>48210.529</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.1178</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58158.7079</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0153</v>
+        <v>-0.0184</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.4279</v>
       </c>
+      <c r="E8" s="1">
+        <v>3329.176</v>
+      </c>
       <c r="F8" s="1">
         <v>573.7926</v>
       </c>
-      <c r="G8" s="1">
-        <v>3902.9686</v>
-      </c>
       <c r="H8" s="1">
-        <v>67667.7187</v>
+        <v>57719.5896</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9351</v>
+        <v>57719.5896</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.0225</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>67667.7187</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0072</v>
+        <v>-0.008399999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.5932</v>
       </c>
+      <c r="E9" s="1">
+        <v>3902.9686</v>
+      </c>
       <c r="F9" s="1">
         <v>568.4014</v>
       </c>
-      <c r="G9" s="1">
-        <v>4471.3701</v>
-      </c>
       <c r="H9" s="1">
-        <v>78257.9189</v>
+        <v>68309.7571</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8916</v>
+        <v>68309.7571</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9351</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>78257.9189</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0076</v>
+        <v>0.008699999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>16.2741</v>
       </c>
+      <c r="E10" s="1">
+        <v>4471.3701</v>
+      </c>
       <c r="F10" s="1">
         <v>614.4733</v>
       </c>
-      <c r="G10" s="1">
-        <v>5085.8434</v>
-      </c>
       <c r="H10" s="1">
-        <v>82338.2784</v>
+        <v>72390.13989999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6962</v>
+        <v>72390.13989999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.8916</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>82338.2784</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.06710000000000001</v>
+        <v>-0.0756</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.0497</v>
       </c>
+      <c r="E11" s="1">
+        <v>5085.8434</v>
+      </c>
       <c r="F11" s="1">
         <v>586.5205999999999</v>
       </c>
-      <c r="G11" s="1">
-        <v>5672.364</v>
-      </c>
       <c r="H11" s="1">
-        <v>96210.0995</v>
+        <v>86262.0065</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6293</v>
+        <v>86262.0065</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6962</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>96210.0995</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0419</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.4616</v>
       </c>
+      <c r="E12" s="1">
+        <v>5672.364</v>
+      </c>
       <c r="F12" s="1">
         <v>572.6852</v>
       </c>
-      <c r="G12" s="1">
-        <v>6245.0492</v>
-      </c>
       <c r="H12" s="1">
-        <v>108482.7489</v>
+        <v>98534.6342</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.614</v>
+        <v>98534.6342</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6293</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>108482.7489</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0214</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.8249</v>
       </c>
+      <c r="E13" s="1">
+        <v>6245.0492</v>
+      </c>
       <c r="F13" s="1">
         <v>561.013</v>
       </c>
-      <c r="G13" s="1">
-        <v>6806.0621</v>
-      </c>
       <c r="H13" s="1">
-        <v>120688.4966</v>
+        <v>110740.3342</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6313</v>
+        <v>110740.3342</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.614</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>120688.4966</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0186</v>
+        <v>0.0203</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>16.8446</v>
       </c>
+      <c r="E14" s="1">
+        <v>6806.0621</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6806.0621</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6245.0492</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>114051.2248</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6313</v>
+        <v>114051.2248</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1621</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>114051.2248</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>114051.2248</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114051.2248</v>
+        <v>104650.1623</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1273</v>
+        <v>-0.0554</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>18.2974</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>546.5257</v>
       </c>
       <c r="G2" s="1">
-        <v>546.5257</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.134700000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2974</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.134700000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>17.699</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>546.5257</v>
       </c>
       <c r="F3" s="1">
         <v>565.0037</v>
       </c>
       <c r="G3" s="1">
-        <v>1111.5294</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19570.9206</v>
+        <v>9622.787899999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.9932</v>
+        <v>9622.787899999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.2974</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19570.9206</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0189</v>
+        <v>-0.0377</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>18.0595</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1111.5294</v>
       </c>
       <c r="F4" s="1">
         <v>553.7252</v>
       </c>
       <c r="G4" s="1">
-        <v>1665.2546</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29917.631</v>
+        <v>19969.515</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.0153</v>
+        <v>19969.515</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.9932</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29917.631</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0117</v>
+        <v>0.0177</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>18.696</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1665.2546</v>
       </c>
       <c r="F5" s="1">
         <v>485.3871</v>
       </c>
       <c r="G5" s="1">
-        <v>2150.6417</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30972.2367</v>
       </c>
       <c r="I5" s="1">
-        <v>39074.7973</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.1689</v>
+        <v>30972.2367</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29074.7973</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.4597</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9074.7973</v>
       </c>
-      <c r="O5" s="1">
-        <v>925.2027</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40925.2027</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0252</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.8704</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2150.6417</v>
       </c>
       <c r="F6" s="1">
         <v>611.3575</v>
       </c>
       <c r="G6" s="1">
-        <v>2761.9992</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>49101.9928</v>
+        <v>38233.4629</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>925.2027</v>
       </c>
       <c r="J6" s="1">
-        <v>18.1028</v>
+        <v>39158.6656</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.5991</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10925.2027</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49101.9928</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0358</v>
+        <v>-0.0443</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.5604</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2761.9992</v>
       </c>
       <c r="F7" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>3331.4623</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>58198.6473</v>
+        <v>48250.4684</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>18.0101</v>
+        <v>48250.4684</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.1028</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58198.6473</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0153</v>
+        <v>-0.0185</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.4279</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3331.4623</v>
       </c>
       <c r="F8" s="1">
         <v>573.7926</v>
       </c>
       <c r="G8" s="1">
-        <v>3905.2549</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>67707.3566</v>
+        <v>57759.2274</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9246</v>
+        <v>57759.2274</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.0101</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>67707.3566</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0072</v>
+        <v>-0.008399999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.5932</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3905.2549</v>
       </c>
       <c r="F9" s="1">
         <v>568.4014</v>
       </c>
       <c r="G9" s="1">
-        <v>4473.6563</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>78297.9328</v>
+        <v>68349.77099999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8825</v>
+        <v>68349.77099999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9246</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>78297.9328</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0076</v>
+        <v>0.008699999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>16.2741</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4473.6563</v>
       </c>
       <c r="F10" s="1">
         <v>614.4733</v>
       </c>
       <c r="G10" s="1">
-        <v>5088.1296</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>82375.29210000001</v>
+        <v>72427.15360000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6882</v>
+        <v>72427.15360000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.8825</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>82375.29210000001</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.06710000000000001</v>
+        <v>-0.0756</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.0497</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5088.1296</v>
       </c>
       <c r="F11" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>5674.6502</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>96248.87699999999</v>
+        <v>86300.7841</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6222</v>
+        <v>86300.7841</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6882</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>96248.87699999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0419</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.4616</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5674.6502</v>
       </c>
       <c r="F12" s="1">
         <v>572.6852</v>
       </c>
       <c r="G12" s="1">
-        <v>6247.3354</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>108522.4634</v>
+        <v>98574.3486</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6075</v>
+        <v>98574.3486</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6222</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>108522.4634</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0214</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.8249</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6247.3354</v>
       </c>
       <c r="F13" s="1">
         <v>519.8999</v>
       </c>
       <c r="G13" s="1">
-        <v>6767.2353</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>110780.8751</v>
       </c>
       <c r="I13" s="1">
-        <v>119267.1636</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6242</v>
+        <v>110780.8751</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>109267.1636</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.4902</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-9267.1636</v>
       </c>
-      <c r="O13" s="1">
-        <v>732.8364</v>
-      </c>
-      <c r="P13" s="1">
-        <v>120732.8364</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0186</v>
+        <v>0.0203</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>16.8446</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6767.2353</v>
       </c>
       <c r="F14" s="1">
         <v>-6767.2353</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>113400.5921</v>
       </c>
       <c r="I14" s="1">
-        <v>119267.1636</v>
+        <v>732.8364</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6242</v>
+        <v>114133.4285</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>109267.1636</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1465</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>113400.5921</v>
       </c>
-      <c r="O14" s="1">
-        <v>114133.4285</v>
-      </c>
-      <c r="P14" s="1">
-        <v>114133.4285</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.127</v>
+        <v>-0.055</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>18.2974</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>546.5257</v>
       </c>
       <c r="G2" s="1">
-        <v>546.5257</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.134700000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2974</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.134700000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>17.699</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>546.5257</v>
       </c>
       <c r="F3" s="1">
         <v>565.0037</v>
       </c>
       <c r="G3" s="1">
-        <v>1111.5294</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19570.9206</v>
+        <v>9622.787899999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.9932</v>
+        <v>9622.787899999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.2974</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19570.9206</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0189</v>
+        <v>-0.0377</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>18.0595</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1111.5294</v>
       </c>
       <c r="F4" s="1">
         <v>553.7252</v>
       </c>
       <c r="G4" s="1">
-        <v>1665.2546</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29917.631</v>
+        <v>19969.515</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.0153</v>
+        <v>19969.515</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.9932</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29917.631</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0117</v>
+        <v>0.0177</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>18.696</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1665.2546</v>
       </c>
       <c r="F5" s="1">
         <v>501.5707</v>
       </c>
       <c r="G5" s="1">
-        <v>2166.8253</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>30972.2367</v>
       </c>
       <c r="I5" s="1">
-        <v>39377.3667</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.1728</v>
+        <v>30972.2367</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29377.3667</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.6414</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9377.3667</v>
       </c>
-      <c r="O5" s="1">
-        <v>622.6333</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40923.6345</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0252</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.8704</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2166.8253</v>
       </c>
       <c r="F6" s="1">
         <v>594.4262</v>
       </c>
       <c r="G6" s="1">
-        <v>2761.2515</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>49088.7009</v>
+        <v>38521.1709</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>622.6333</v>
       </c>
       <c r="J6" s="1">
-        <v>18.1077</v>
+        <v>39143.8042</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.4602</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10622.6333</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49088.7009</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.036</v>
+        <v>-0.0446</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.5604</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2761.2515</v>
       </c>
       <c r="F7" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>3330.7146</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>58185.5859</v>
+        <v>48237.407</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>18.0142</v>
+        <v>48237.407</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.1077</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58185.5859</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0153</v>
+        <v>-0.0184</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.4279</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3330.7146</v>
       </c>
       <c r="F8" s="1">
         <v>573.7926</v>
       </c>
       <c r="G8" s="1">
-        <v>3904.5072</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>67694.39380000001</v>
+        <v>57746.2646</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.928</v>
+        <v>57746.2646</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.0142</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>67694.39380000001</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0072</v>
+        <v>-0.008399999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.5932</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3904.5072</v>
       </c>
       <c r="F9" s="1">
         <v>568.4014</v>
       </c>
       <c r="G9" s="1">
-        <v>4472.9086</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>78284.84699999999</v>
+        <v>68336.68520000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8855</v>
+        <v>68336.68520000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.928</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>78284.84699999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0076</v>
+        <v>0.008699999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>16.2741</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4472.9086</v>
       </c>
       <c r="F10" s="1">
         <v>614.4733</v>
       </c>
       <c r="G10" s="1">
-        <v>5087.3819</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>82363.1875</v>
+        <v>72415.049</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6908</v>
+        <v>72415.049</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.8855</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>82363.1875</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.06710000000000001</v>
+        <v>-0.0756</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.0497</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5087.3819</v>
       </c>
       <c r="F11" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>5673.9025</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>96236.19560000001</v>
+        <v>86288.1026</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6246</v>
+        <v>86288.1026</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6908</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>96236.19560000001</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0419</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.4616</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5673.9025</v>
       </c>
       <c r="F12" s="1">
         <v>572.6852</v>
       </c>
       <c r="G12" s="1">
-        <v>6246.5877</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>108509.4755</v>
+        <v>98561.36079999999</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6096</v>
+        <v>98561.36079999999</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6246</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>108509.4755</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0214</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.8249</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6246.5877</v>
       </c>
       <c r="F13" s="1">
         <v>561.013</v>
       </c>
       <c r="G13" s="1">
-        <v>6807.6007</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>120715.7794</v>
+        <v>110767.617</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6274</v>
+        <v>110767.617</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6096</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>120715.7794</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0186</v>
+        <v>0.0203</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>16.8446</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6807.6007</v>
       </c>
       <c r="F14" s="1">
         <v>-6807.6007</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>114077.0072</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6274</v>
+        <v>114077.0072</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1584</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>114077.0072</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>114077.0072</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>114077.0072</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1273</v>
+        <v>-0.0554</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>18.2974</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>546.5257</v>
       </c>
       <c r="G2" s="1">
-        <v>546.5257</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.134700000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2974</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.134700000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>17.699</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>546.5257</v>
       </c>
       <c r="F3" s="1">
         <v>565.0037</v>
       </c>
       <c r="G3" s="1">
-        <v>1111.5294</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19570.9206</v>
+        <v>9622.787899999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.9932</v>
+        <v>9622.787899999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.2974</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19570.9206</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0189</v>
+        <v>-0.0377</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>18.0595</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1111.5294</v>
       </c>
       <c r="F4" s="1">
         <v>553.7252</v>
       </c>
       <c r="G4" s="1">
-        <v>1665.2546</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29917.631</v>
+        <v>19969.515</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.0153</v>
+        <v>19969.515</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.9932</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29917.631</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0117</v>
+        <v>0.0177</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>18.696</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1665.2546</v>
       </c>
       <c r="F5" s="1">
         <v>517.8623</v>
       </c>
       <c r="G5" s="1">
-        <v>2183.1169</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>30972.2367</v>
       </c>
       <c r="I5" s="1">
-        <v>39681.9541</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.1767</v>
+        <v>30972.2367</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29681.9541</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.8243</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9681.954100000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>318.0459</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40922.0559</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0252</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.8704</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2183.1169</v>
       </c>
       <c r="F6" s="1">
         <v>577.3819</v>
       </c>
       <c r="G6" s="1">
-        <v>2760.4988</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>49075.3203</v>
+        <v>38810.7978</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>318.0459</v>
       </c>
       <c r="J6" s="1">
-        <v>18.1127</v>
+        <v>39128.8436</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.3224</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10318.0459</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49075.3203</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0363</v>
+        <v>-0.045</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.5604</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2760.4988</v>
       </c>
       <c r="F7" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>3329.962</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>58172.4374</v>
+        <v>48224.2585</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>18.0182</v>
+        <v>48224.2585</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.1127</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58172.4374</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0153</v>
+        <v>-0.0184</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.4279</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3329.962</v>
       </c>
       <c r="F8" s="1">
         <v>573.7926</v>
       </c>
       <c r="G8" s="1">
-        <v>3903.7546</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>67681.3446</v>
+        <v>57733.2154</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9315</v>
+        <v>57733.2154</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.0182</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>67681.3446</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0072</v>
+        <v>-0.008399999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.5932</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3903.7546</v>
       </c>
       <c r="F9" s="1">
         <v>568.4014</v>
       </c>
       <c r="G9" s="1">
-        <v>4472.156</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>78271.674</v>
+        <v>68323.5122</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8885</v>
+        <v>68323.5122</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9315</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>78271.674</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0076</v>
+        <v>0.008699999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>16.2741</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4472.156</v>
       </c>
       <c r="F10" s="1">
         <v>614.4733</v>
       </c>
       <c r="G10" s="1">
-        <v>5086.6293</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>82351.0021</v>
+        <v>72402.8637</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6934</v>
+        <v>72402.8637</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.8885</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>82351.0021</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.06710000000000001</v>
+        <v>-0.0756</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.0497</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5086.6293</v>
       </c>
       <c r="F11" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>5673.1499</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>96223.4295</v>
+        <v>86275.3366</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6269</v>
+        <v>86275.3366</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6934</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>96223.4295</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0419</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.4616</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5673.1499</v>
       </c>
       <c r="F12" s="1">
         <v>572.6852</v>
       </c>
       <c r="G12" s="1">
-        <v>6245.8351</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>108496.4011</v>
+        <v>98548.2864</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6117</v>
+        <v>98548.2864</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6269</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>108496.4011</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0214</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.8249</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6245.8351</v>
       </c>
       <c r="F13" s="1">
         <v>561.013</v>
       </c>
       <c r="G13" s="1">
-        <v>6806.848</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>120702.4329</v>
+        <v>110754.2705</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6293</v>
+        <v>110754.2705</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6117</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>120702.4329</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0186</v>
+        <v>0.0203</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>16.8446</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6806.848</v>
       </c>
       <c r="F14" s="1">
         <v>-6806.848</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>114064.3947</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6293</v>
+        <v>114064.3947</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.1602</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>114064.3947</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>114064.3947</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>114064.3947</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1273</v>
+        <v>-0.0554</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>18.2974</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>546.5257</v>
       </c>
       <c r="G2" s="1">
-        <v>546.5257</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.134700000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2974</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.134700000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>17.699</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>546.5257</v>
       </c>
       <c r="F3" s="1">
         <v>565.0037</v>
       </c>
       <c r="G3" s="1">
-        <v>1111.5294</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19570.9206</v>
+        <v>9622.787899999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.9932</v>
+        <v>9622.787899999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.2974</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19570.9206</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0189</v>
+        <v>-0.0377</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>18.0595</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1111.5294</v>
       </c>
       <c r="F4" s="1">
         <v>553.7252</v>
       </c>
       <c r="G4" s="1">
-        <v>1665.2546</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29917.631</v>
+        <v>19969.515</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.0153</v>
+        <v>19969.515</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.9932</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>29917.631</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0117</v>
+        <v>0.0177</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>18.696</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1665.2546</v>
       </c>
       <c r="F5" s="1">
         <v>534.2623</v>
       </c>
       <c r="G5" s="1">
-        <v>2199.5168</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>30972.2367</v>
       </c>
       <c r="I5" s="1">
-        <v>39988.567</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.1806</v>
+        <v>30972.2367</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29988.567</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.0084</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9988.566999999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>11.433</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40920.4667</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0251</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.8704</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2199.5168</v>
       </c>
       <c r="F6" s="1">
         <v>560.2243</v>
       </c>
       <c r="G6" s="1">
-        <v>2759.7412</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>49061.8508</v>
+        <v>39102.3506</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>11.433</v>
       </c>
       <c r="J6" s="1">
-        <v>18.1176</v>
+        <v>39113.7836</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.1858</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10011.433</v>
       </c>
-      <c r="O6" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49061.8508</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0365</v>
+        <v>-0.0454</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.5604</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2759.7412</v>
       </c>
       <c r="F7" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>3329.2043</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>58159.2014</v>
+        <v>48211.0226</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>18.0223</v>
+        <v>48211.0226</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.1176</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58159.2014</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0153</v>
+        <v>-0.0184</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.4279</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3329.2043</v>
       </c>
       <c r="F8" s="1">
         <v>573.7926</v>
       </c>
       <c r="G8" s="1">
-        <v>3902.9969</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>67668.20849999999</v>
+        <v>57720.0794</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9349</v>
+        <v>57720.0794</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.0223</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>67668.20849999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0072</v>
+        <v>-0.008399999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.5932</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3902.9969</v>
       </c>
       <c r="F9" s="1">
         <v>568.4014</v>
       </c>
       <c r="G9" s="1">
-        <v>4471.3983</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>78258.4133</v>
+        <v>68310.2515</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8915</v>
+        <v>68310.2515</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9349</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>78258.4133</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0076</v>
+        <v>0.008699999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>16.2741</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4471.3983</v>
       </c>
       <c r="F10" s="1">
         <v>614.4733</v>
       </c>
       <c r="G10" s="1">
-        <v>5085.8716</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>82338.73579999999</v>
+        <v>72390.59729999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6961</v>
+        <v>72390.59729999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.8915</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>82338.73579999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.06710000000000001</v>
+        <v>-0.0756</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.0497</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5085.8716</v>
       </c>
       <c r="F11" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>5672.3922</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>96210.57859999999</v>
+        <v>86262.4857</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6292</v>
+        <v>86262.4857</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6961</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>96210.57859999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0419</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.4616</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5672.3922</v>
       </c>
       <c r="F12" s="1">
         <v>572.6852</v>
       </c>
       <c r="G12" s="1">
-        <v>6245.0774</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>108483.2397</v>
+        <v>98535.125</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6139</v>
+        <v>98535.125</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6292</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>108483.2397</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0214</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.8249</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6245.0774</v>
       </c>
       <c r="F13" s="1">
         <v>561.013</v>
       </c>
       <c r="G13" s="1">
-        <v>6806.0904</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>120688.9976</v>
+        <v>110740.8352</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6313</v>
+        <v>110740.8352</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6139</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>120688.9976</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0186</v>
+        <v>0.0203</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>16.8446</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6806.0904</v>
       </c>
       <c r="F14" s="1">
         <v>-6806.0904</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>114051.6982</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6313</v>
+        <v>114051.6982</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.162</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>114051.6982</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>114051.6982</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>114051.6982</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1273</v>
+        <v>-0.0554</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>16.7992</v>
@@ -4514,99 +4487,99 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.6313</v>
+        <v>16.1621</v>
       </c>
       <c r="D3" s="1">
-        <v>17.6242</v>
+        <v>16.1465</v>
       </c>
       <c r="E3" s="1">
-        <v>17.6274</v>
+        <v>16.1584</v>
       </c>
       <c r="F3" s="1">
-        <v>17.6293</v>
+        <v>16.1602</v>
       </c>
       <c r="G3" s="1">
-        <v>17.6313</v>
+        <v>16.162</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.074</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1459</v>
+        <v>-0.0901</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1447</v>
+        <v>-0.0888</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1453</v>
+        <v>-0.08939999999999999</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1456</v>
+        <v>-0.0898</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1459</v>
+        <v>-0.0901</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1289</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1559</v>
+        <v>0.1292</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1556</v>
+        <v>0.1287</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1558</v>
+        <v>0.129</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1558</v>
+        <v>0.1291</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1559</v>
+        <v>0.1292</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.7321</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.0664</v>
+        <v>-0.8552</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.0609</v>
+        <v>-0.8474</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.0631</v>
+        <v>-0.8512999999999999</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.0647</v>
+        <v>-0.8532</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.0663</v>
+        <v>-0.8551</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0902</v>
+        <v>-0.2272</v>
       </c>
       <c r="D7" s="3">
         <v>-0.0892</v>
@@ -4623,7 +4596,7 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
